--- a/data/trans_bre/IP2003-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 15,86</t>
+          <t>-1,99; 17,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 10,33</t>
+          <t>-9,39; 10,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -0,24</t>
+          <t>-18,5; 0,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 21,01</t>
+          <t>-4,81; 19,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 139,92</t>
+          <t>-10,28; 165,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 73,13</t>
+          <t>-37,63; 78,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,63; 9,81</t>
+          <t>-81,69; 9,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 811,59</t>
+          <t>-58,69; 558,31</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,38</t>
+          <t>0,97; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,28</t>
+          <t>-1,72; 6,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,73</t>
+          <t>-1,71; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,65</t>
+          <t>-4,79; 6,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 74,78</t>
+          <t>5,01; 69,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 51,2</t>
+          <t>-10,94; 53,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 51,49</t>
+          <t>-12,12; 58,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 51,61</t>
+          <t>-28,02; 50,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 3,76</t>
+          <t>-8,95; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 13,8</t>
+          <t>1,57; 13,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 5,15</t>
+          <t>-5,51; 6,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,69</t>
+          <t>-4,04; 9,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,27; 38,61</t>
+          <t>-54,08; 27,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 306,1</t>
+          <t>12,53; 260,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 61,42</t>
+          <t>-41,07; 72,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 115,69</t>
+          <t>-31,14; 108,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,56</t>
+          <t>0,01; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,74</t>
+          <t>0,85; 6,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,58</t>
+          <t>-2,38; 3,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,74</t>
+          <t>-2,51; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 49,87</t>
+          <t>-0,26; 51,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 58,46</t>
+          <t>5,87; 59,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 30,64</t>
+          <t>-15,9; 30,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 50,87</t>
+          <t>-17,46; 49,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,64%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 16,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 12,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,45; 0,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 27,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 162,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,73; 84,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,9; 15,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,86; 1466,46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,65</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,78%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,51%</t>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 17,11</t>
+          <t>0,93; 9,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 10,67</t>
+          <t>-1,5; 6,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 0,26</t>
+          <t>-1,86; 6,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 19,62</t>
+          <t>-4,84; 20,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 165,28</t>
+          <t>5,57; 72,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 78,66</t>
+          <t>-9,9; 53,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,69; 9,01</t>
+          <t>-13,3; 57,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 558,31</t>
+          <t>-28,38; 150,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>-22,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>105,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>22,14%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,25</t>
+          <t>-9,04; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,74</t>
+          <t>1,4; 13,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,3</t>
+          <t>-6,0; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,47</t>
+          <t>-5,25; 9,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 69,57</t>
+          <t>-54,82; 29,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 53,36</t>
+          <t>8,31; 260,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 58,47</t>
+          <t>-43,74; 81,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 50,26</t>
+          <t>-33,69; 98,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,68%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>105,95%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 2,67</t>
+          <t>-0,02; 6,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 13,34</t>
+          <t>0,49; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,1</t>
+          <t>-2,84; 3,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,77</t>
+          <t>-2,65; 16,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 27,79</t>
+          <t>-0,23; 49,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 260,21</t>
+          <t>3,73; 57,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 72,88</t>
+          <t>-18,73; 28,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 108,59</t>
+          <t>-17,72; 128,66</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>27,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 6,64</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 6,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 3,53</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 5,97</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 51,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 59,15</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 30,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 49,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
